--- a/lab 1/Ламов В.А. ЛР 1.xlsx
+++ b/lab 1/Ламов В.А. ЛР 1.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B10AB7-D7BD-49CC-B07F-4D28B508591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -204,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -326,21 +338,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -360,57 +371,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,23 +680,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H58" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -718,1462 +704,1173 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="I3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="12"/>
-      <c r="I4" s="11" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="I4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f>6/11</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="4">
         <v>0.75680000000000003</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <f>SQRT(J5*J6/J7)</f>
         <v>2.4894160867219823</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <f>J8/J5</f>
         <v>2.6427061310782242E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
-      <c r="I6" s="18" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="4">
         <v>21.7</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <f t="shared" ref="O6:O7" si="0">J9/J6</f>
         <v>9.2165898617511521E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>9.11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <f>SQRT(83)</f>
         <v>9.1104335791442992</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="4">
         <v>2.65</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <f t="shared" si="0"/>
         <v>3.7735849056603774E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
-      <c r="I8" s="18" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="I8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <f>(O5+O6+O7)/2</f>
         <v>2.4797572524716573E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>F5-C5</f>
         <v>4.5454545454537421E-4</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="12"/>
-      <c r="I9" s="18" t="s">
+      <c r="F9" s="11"/>
+      <c r="I9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="4">
         <v>0.02</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <f>L5*O8</f>
         <v>6.1731475954684475E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>F7-C7</f>
         <v>4.3357914429975608E-4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12"/>
-      <c r="I10" s="18" t="s">
+      <c r="F10" s="11"/>
+      <c r="I10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="4">
         <v>0.01</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>B9/C5</f>
         <v>8.340283569639893E-4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="11"/>
+      <c r="I12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>B10/C7</f>
         <v>4.7593758979117026E-5</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="12"/>
-      <c r="I13" s="18" t="s">
+      <c r="F13" s="11"/>
+      <c r="I13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="4">
         <v>0.83450000000000002</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <f>SQRT(J13*J14/J15)</f>
         <v>2.5017493879283754</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <f>J16/J13</f>
         <v>4.7932893948472141E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="12"/>
-      <c r="I14" s="18" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="I14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="4">
         <v>13.8</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <f t="shared" ref="O14:O15" si="1">J17/J14</f>
         <v>2.1739130434782605E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="I15" s="18" t="s">
+      <c r="F15" s="15"/>
+      <c r="I15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="4">
         <v>1.84</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <f t="shared" si="1"/>
         <v>3.2608695652173911E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="18" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <f>(O13+O14+O15)/2</f>
         <v>2.9570557740901866E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="I17" s="18" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="I17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="4">
         <v>0.03</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <f>L13*O16</f>
         <v>7.3978124729001931E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
-      <c r="I18" s="18" t="s">
+      <c r="F18" s="11"/>
+      <c r="I18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>21.68563</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <f>B20*D20</f>
         <v>6.5056890000000006E-2</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
-      <c r="I21" s="18" t="s">
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="I21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="4">
         <v>0.63839999999999997</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <f>SQRT(J21*J22/J23)</f>
         <v>2.0682851057551335</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <f>J24/J21</f>
         <v>3.1328320802005016E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="E22">
         <f>F20</f>
         <v>6.5056890000000006E-2</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="4">
         <v>32.700000000000003</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <f t="shared" ref="O22:O23" si="2">J25/J22</f>
         <v>1.2232415902140672E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
-      <c r="I23" s="18" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="I23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="4">
         <v>4.88</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="11">
         <f t="shared" si="2"/>
         <v>6.1475409836065573E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
-      <c r="I24" s="18" t="s">
+      <c r="F24" s="11"/>
+      <c r="I24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="11">
         <f>(O21+O22+O23)/2</f>
         <v>3.8420328909203371E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
-      <c r="I25" s="18" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="I25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="4">
         <v>0.04</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="11">
         <f>L21*O24</f>
         <v>7.9464194041118704E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <f>F20+ABS(B26-B20)</f>
         <v>0.37942689000000029</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="16">
         <v>0.03</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="16"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="E28">
         <f>F26</f>
         <v>0.37942689000000029</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
-      <c r="I29" s="11" t="s">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="I29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="2" t="s">
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
-      <c r="I30" s="18" t="s">
+      <c r="F30" s="11"/>
+      <c r="I30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="4">
         <v>10.82</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30">
         <f>POWER(J30-J31, 1/3)/J32/(J33-J30)</f>
         <v>1.8435468785851563</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="11">
         <f>(J34+J35)/(J30-J31)</f>
         <v>3.8088125466766241E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
-      <c r="I31" s="18" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="I31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="4">
         <v>2.786</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="11">
         <f>(J37+J34)/(J33-J30)</f>
         <v>2.3195876288659798E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
-      <c r="I32" s="18" t="s">
+      <c r="F32" s="11"/>
+      <c r="I32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="11">
         <f>J36/J32</f>
         <v>2.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
-      <c r="I33" s="28" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="I33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="4">
         <v>14.7</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="11">
         <f>O30/3+O31+O32</f>
         <v>4.5894051899456764E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>3.7833999999999999</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="I34" s="18" t="s">
+      <c r="F34" s="20"/>
+      <c r="I34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="4">
         <v>0.03</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="11">
         <f>L30*O33</f>
         <v>8.4607836124868677E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
-      <c r="I35" s="18" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="I35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="2" t="s">
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
-      <c r="I36" s="18" t="s">
+      <c r="F36" s="11"/>
+      <c r="I36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
-      <c r="I37" s="18" t="s">
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="I37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="4">
         <v>0.06</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>3.78</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f>D34+ABS(B38-B34)</f>
         <v>7.50000000000007E-3</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
-      <c r="I39" s="11" t="s">
+      <c r="F38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="I39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="16"/>
-      <c r="I40" s="18" t="s">
+      <c r="F40" s="15"/>
+      <c r="I40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="4">
         <v>9.3699999999999992</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40">
         <f>POWER(J40-J41, 1/3)/J42/(J43-J40)</f>
         <v>0.68729729499361136</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="11">
         <f>(J44+J45)/(J40-J41)</f>
         <v>6.8668157138294494E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I41" s="18" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I41" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="4">
         <v>3.1080000000000001</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="11">
         <f>(J47+J44)/(J43-J40)</f>
         <v>7.5471698113207539E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="I42" s="18" t="s">
+      <c r="B42" s="9"/>
+      <c r="I42" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="4">
         <v>0.46</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <f>J46/J42</f>
         <v>4.3478260869565218E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="I43" s="28" t="s">
+      <c r="B43" s="11"/>
+      <c r="I43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="4">
         <v>15.2</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="11">
         <f>O40/3+O41+O42</f>
         <v>1.2123889755404925E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>41.72</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="11">
         <f>L40*O43</f>
         <v>8.3327166336905623E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f>B45/B44</f>
         <v>1.1984659635666348E-4</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="4">
         <v>2E-3</v>
       </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="I47" s="18" t="s">
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="I47" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="4">
         <v>0.04</v>
       </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="B48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>0.67800000000000005</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="12"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>1E-3</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="4">
         <v>11.45</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50">
         <f>POWER(J50-J51, 1/3)/J52/(J53-J50)</f>
         <v>0.48626295021608618</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="11">
         <f>(J54+J55)/(J50-J51)</f>
         <v>1.7096452486109134E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <f>B50/B49</f>
         <v>1.4749262536873156E-3</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="4">
         <v>4.431</v>
       </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O51" s="11">
         <f>(J57+J54)/(J53-J50)</f>
         <v>1.142857142857143E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I52" s="18" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I52" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="4">
         <v>0.75</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="11">
         <f>J56/J52</f>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I53" s="28" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I53" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="4">
         <v>16.7</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="20" t="s">
+      <c r="N53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="11">
         <f>O50/3+O51+O52</f>
         <v>1.5998453178108402E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I54" s="18" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="4">
         <v>0.01</v>
       </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O54" s="12">
+      <c r="O54" s="11">
         <f>L50*O53</f>
         <v>7.7794550412809121E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I55" s="18" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="4">
         <v>2E-3</v>
       </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I56" s="18" t="s">
+      <c r="O55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I56" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I57" s="23" t="s">
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I57" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="16">
         <v>0.05</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="16"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I59" s="27" t="s">
+      <c r="O57" s="15"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I59" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="10"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I60" s="34" t="s">
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="9"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I60" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="31" t="s">
+      <c r="L60" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="31" t="s">
+      <c r="O60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P60" s="12"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I61" s="28" t="s">
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>46.3</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="30" t="s">
+      <c r="L61" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="4">
         <v>10.5</v>
       </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="30" t="s">
+      <c r="O61" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P61" s="21">
+      <c r="P61" s="20">
         <v>2.48</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I62" s="28" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="4">
         <v>29.72</v>
       </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="30" t="s">
+      <c r="L62" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="4">
         <v>34.18</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="30" t="s">
+      <c r="O62" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="20">
         <v>5.3440000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I63" s="28" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I63" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>37.654000000000003</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="30" t="s">
+      <c r="L63" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="4">
         <v>27.327000000000002</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="30" t="s">
+      <c r="O63" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P63" s="20">
         <v>6.0217999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I64" s="28" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I64" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <f>(J61+J62+J63)/2</f>
         <v>56.837000000000003</v>
       </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="30" t="s">
+      <c r="L64" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <f>(M61+M62+M63)/2</f>
         <v>36.003500000000003</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="30" t="s">
+      <c r="O64" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="P64" s="35">
+      <c r="P64" s="26">
         <f>(P61+P62+P63)/2</f>
         <v>6.9229000000000003</v>
       </c>
     </row>
-    <row r="65" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I65" s="28" t="s">
+    <row r="65" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <f>J64-J61</f>
         <v>10.537000000000006</v>
       </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="30" t="s">
+      <c r="L65" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="6">
         <f>M64-M61</f>
         <v>25.503500000000003</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="30" t="s">
+      <c r="O65" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P65" s="35">
+      <c r="P65" s="26">
         <f>P64-P61</f>
         <v>4.4428999999999998</v>
       </c>
     </row>
-    <row r="66" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I66" s="28" t="s">
+    <row r="66" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I66" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <f>J64-J62</f>
         <v>27.117000000000004</v>
       </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="30" t="s">
+      <c r="L66" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="6">
         <f>M64-M62</f>
         <v>1.8235000000000028</v>
       </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="30" t="s">
+      <c r="O66" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P66" s="35">
+      <c r="P66" s="26">
         <f>P64-P62</f>
         <v>1.5789</v>
       </c>
     </row>
-    <row r="67" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I67" s="28" t="s">
+    <row r="67" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I67" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <f>J64-J63</f>
         <v>19.183</v>
       </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="30" t="s">
+      <c r="L67" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="6">
         <f>M64-M63</f>
         <v>8.6765000000000008</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="30" t="s">
+      <c r="O67" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="P67" s="35">
+      <c r="P67" s="26">
         <f>P64-P63</f>
         <v>0.90110000000000046</v>
       </c>
     </row>
-    <row r="68" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I68" s="36" t="s">
+    <row r="68" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I68" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J68" s="33">
+      <c r="J68" s="24">
         <f>SQRT(J64*J65*J66*J67)</f>
         <v>558.1528508806158</v>
       </c>
       <c r="K68" s="1"/>
-      <c r="L68" s="32" t="s">
+      <c r="L68" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M68" s="33">
+      <c r="M68" s="24">
         <f>SQRT(M64*M65*M66*M67)</f>
         <v>120.53062900039262</v>
       </c>
       <c r="N68" s="1"/>
-      <c r="O68" s="32" t="s">
+      <c r="O68" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P68" s="37">
+      <c r="P68" s="27">
         <f>SQRT(P64*P65*P66*P67)</f>
         <v>6.6151714648179976</v>
       </c>
